--- a/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
+++ b/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -147,10 +147,22 @@
     <t>xref</t>
   </si>
   <si>
-    <t>Annotation_log</t>
-  </si>
-  <si>
-    <t>Annotation log</t>
+    <t>termsFound</t>
+  </si>
+  <si>
+    <t>termsNotFound</t>
+  </si>
+  <si>
+    <t>terms used for Gene Network</t>
+  </si>
+  <si>
+    <t>termsnot  used for Gene Network</t>
+  </si>
+  <si>
+    <t>HPO terms that were used by the gene network annotator</t>
+  </si>
+  <si>
+    <t>HPO terms that were not found by the gene network annotator</t>
   </si>
 </sst>
 </file>
@@ -240,10 +252,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -271,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -280,6 +300,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -287,6 +311,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -617,17 +645,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
@@ -744,7 +772,7 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -758,13 +786,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -782,49 +810,70 @@
         <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
+++ b/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>HPO terms that were not found by the gene network annotator</t>
+  </si>
+  <si>
+    <t>geneNetworkLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gene Network URL</t>
+  </si>
+  <si>
+    <t>Link to the gene network page for the HPO terms for this project</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,8 +290,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -290,8 +304,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -304,6 +321,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -315,6 +333,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -645,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,43 +856,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>1</v>
+    <row r="9" spans="1:15" s="3" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
+++ b/molgenis-data-annotators/src/test/resources/GeneNetworkAnnotator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -69,52 +69,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>HPO phenotypes</t>
   </si>
   <si>
-    <t>Examination Notes</t>
-  </si>
-  <si>
-    <t>Patient notes</t>
-  </si>
-  <si>
     <t>Examination Identifier</t>
   </si>
   <si>
-    <t>Patient Identifier</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>mref</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>Phenotypes of the patient selected from the HPO ontology</t>
   </si>
   <si>
     <t>Identifier for the medical examination</t>
-  </si>
-  <si>
-    <t>Free text notes for this patient</t>
-  </si>
-  <si>
-    <t>Patient identifier</t>
-  </si>
-  <si>
-    <t>Free text notes for this examination</t>
-  </si>
-  <si>
-    <t>entityName</t>
   </si>
   <si>
     <t>Variant entity name</t>
@@ -147,12 +117,6 @@
     <t>xref</t>
   </si>
   <si>
-    <t>termsFound</t>
-  </si>
-  <si>
-    <t>termsNotFound</t>
-  </si>
-  <si>
     <t>terms used for Gene Network</t>
   </si>
   <si>
@@ -165,9 +129,6 @@
     <t>HPO terms that were not found by the gene network annotator</t>
   </si>
   <si>
-    <t>geneNetworkLink</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gene Network URL</t>
   </si>
   <si>
@@ -175,6 +136,81 @@
   </si>
   <si>
     <t>hyperlink</t>
+  </si>
+  <si>
+    <t>AnnotationRun</t>
+  </si>
+  <si>
+    <t>ImportRun</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ermsFound</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ermsNotFound</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eneNetworkLink</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -184,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,7 +237,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,6 +265,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -236,11 +279,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,6 +292,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -264,10 +308,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,46 +346,53 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
-    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="34">
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -727,190 +785,150 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <v>1</v>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1">
+    <row r="7" spans="1:15" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1">
+    <row r="8" spans="1:15" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1">
+    <row r="9" spans="1:15" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
